--- a/rm-data/quizes/Grades24.xlsx
+++ b/rm-data/quizes/Grades24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\GitHub\riosavila\rm-data\quizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F6E031-95AF-4F83-A081-B5B00192B815}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8100FF-7E2C-4FCB-9476-5B89250AC960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="7590" xr2:uid="{D3ED276E-F392-496A-AF90-5D2B9459768C}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>p3</t>
   </si>
   <si>
-    <t>p4</t>
-  </si>
-  <si>
     <t>p5</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>hw11</t>
+  </si>
+  <si>
+    <t>p4/15</t>
   </si>
 </sst>
 </file>
@@ -171,12 +171,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -201,6 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,7 +526,7 @@
   <dimension ref="B1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +537,7 @@
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -539,7 +546,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -550,7 +557,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -586,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -598,16 +605,16 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
       </c>
       <c r="T2" t="s">
         <v>26</v>
@@ -619,10 +626,10 @@
         <v>28</v>
       </c>
       <c r="W2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
         <v>29</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -648,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -664,6 +671,9 @@
       </c>
       <c r="P3">
         <v>5</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
@@ -694,14 +704,17 @@
       <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
@@ -727,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -743,6 +756,9 @@
       </c>
       <c r="P5">
         <v>9</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
@@ -768,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -784,6 +800,12 @@
       </c>
       <c r="P6">
         <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
@@ -806,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7">
         <v>9</v>
@@ -822,6 +844,9 @@
       </c>
       <c r="P7">
         <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
@@ -847,7 +872,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -862,6 +887,9 @@
         <v>4</v>
       </c>
       <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
       </c>
     </row>
@@ -904,6 +932,12 @@
       </c>
       <c r="P9">
         <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/rm-data/quizes/Grades24.xlsx
+++ b/rm-data/quizes/Grades24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\GitHub\riosavila\rm-data\quizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8100FF-7E2C-4FCB-9476-5B89250AC960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C065BDC5-CDC1-4EFC-BF8F-F23857B5D909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="7590" xr2:uid="{D3ED276E-F392-496A-AF90-5D2B9459768C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Quizes-10%</t>
@@ -204,10 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,7 +523,7 @@
   <dimension ref="B1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,33 +533,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="T1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
     </row>
     <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -605,16 +602,16 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
       </c>
       <c r="T2" t="s">
         <v>26</v>
@@ -626,7 +623,7 @@
         <v>28</v>
       </c>
       <c r="W2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s">
         <v>29</v>
@@ -654,6 +651,9 @@
       <c r="H3">
         <v>5</v>
       </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
       <c r="K3" t="s">
         <v>31</v>
       </c>
@@ -698,22 +698,25 @@
       <c r="H4">
         <v>4</v>
       </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
       <c r="L4">
         <v>8</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>0</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>3</v>
       </c>
     </row>
@@ -739,6 +742,9 @@
       <c r="H5">
         <v>5</v>
       </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
       <c r="K5" t="s">
         <v>31</v>
       </c>
@@ -783,6 +789,9 @@
       <c r="H6">
         <v>5</v>
       </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
       <c r="K6" t="s">
         <v>31</v>
       </c>
@@ -827,8 +836,11 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
       </c>
       <c r="L7">
         <v>9</v>
@@ -869,6 +881,9 @@
         <v>5</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
         <v>5</v>
       </c>
       <c r="K8" t="s">

--- a/rm-data/quizes/Grades24.xlsx
+++ b/rm-data/quizes/Grades24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\GitHub\riosavila\rm-data\quizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C065BDC5-CDC1-4EFC-BF8F-F23857B5D909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD08BCC-B5E2-40F5-99C1-26FEAC296400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="7590" xr2:uid="{D3ED276E-F392-496A-AF90-5D2B9459768C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -105,18 +105,6 @@
     <t>hw3</t>
   </si>
   <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
     <t>hw0</t>
   </si>
   <si>
@@ -145,13 +133,31 @@
   </si>
   <si>
     <t>p4/15</t>
+  </si>
+  <si>
+    <t>p1-5</t>
+  </si>
+  <si>
+    <t>p2-5</t>
+  </si>
+  <si>
+    <t>I-10</t>
+  </si>
+  <si>
+    <t>p3-15</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Part I: Research Proposal (5%, due Week 2). See here for few examples of research proposals.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +172,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -204,6 +217,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -520,21 +542,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F5E725-F72A-43FF-B2C4-A946C215241C}">
-  <dimension ref="B1:X9"/>
+  <dimension ref="B1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -543,7 +565,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -554,14 +576,14 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +612,7 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -602,34 +624,37 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
       </c>
       <c r="W2" t="s">
         <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -655,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -675,8 +700,20 @@
       <c r="Q3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -719,8 +756,20 @@
       <c r="Q4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T4" s="3">
+        <v>5</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -746,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -766,8 +815,20 @@
       <c r="Q5">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -793,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -811,13 +872,22 @@
         <v>10</v>
       </c>
       <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
         <v>10</v>
       </c>
       <c r="W6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -860,8 +930,20 @@
       <c r="Q7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -887,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L8">
         <v>8</v>
@@ -907,8 +989,20 @@
       <c r="Q8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -925,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -951,9 +1045,65 @@
       <c r="Q9">
         <v>3</v>
       </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
       <c r="W9">
         <v>2</v>
       </c>
+    </row>
+    <row r="11" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -969,7 +1119,9 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{1E053555-6E68-4B8A-BA24-C7FA665B8617}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{055CAAB6-CECB-4865-AC56-BDA6DEA0AB76}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{6361C2E2-6406-4373-AC5A-5BCEA5B905C8}"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://riosavila.github.io/rm-data/example_proposals.html" xr:uid="{59162FD8-014A-4E09-9186-E85A50868DBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/rm-data/quizes/Grades24.xlsx
+++ b/rm-data/quizes/Grades24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\GitHub\riosavila\rm-data\quizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD08BCC-B5E2-40F5-99C1-26FEAC296400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E926D0F-0C47-4F01-A094-7B6011F95108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="7590" xr2:uid="{D3ED276E-F392-496A-AF90-5D2B9459768C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>q6</t>
-  </si>
-  <si>
-    <t>q7</t>
   </si>
   <si>
     <t>hw1</t>
@@ -215,9 +212,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -226,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,10 +539,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F5E725-F72A-43FF-B2C4-A946C215241C}">
-  <dimension ref="B1:Y25"/>
+  <dimension ref="B1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,36 +555,35 @@
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -609,10 +609,10 @@
         <v>21</v>
       </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -621,7 +621,7 @@
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
         <v>31</v>
@@ -632,8 +632,8 @@
       <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" t="s">
-        <v>34</v>
+      <c r="S2" t="s">
+        <v>35</v>
       </c>
       <c r="T2" t="s">
         <v>36</v>
@@ -645,16 +645,13 @@
         <v>38</v>
       </c>
       <c r="W2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" t="s">
         <v>39</v>
       </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -679,41 +676,47 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M3">
         <v>8</v>
       </c>
       <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>9</v>
+      </c>
+      <c r="Q3">
         <v>8</v>
       </c>
-      <c r="O3">
-        <v>9</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
-        <v>9</v>
+      <c r="S3">
+        <v>5</v>
       </c>
       <c r="T3">
         <v>5</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -738,11 +741,14 @@
       <c r="I4">
         <v>4</v>
       </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
       <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
         <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -751,25 +757,22 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
+        <v>3</v>
+      </c>
+      <c r="S4" s="3">
+        <v>5</v>
+      </c>
+      <c r="T4" s="3">
         <v>0</v>
       </c>
-      <c r="Q4" s="3">
-        <v>3</v>
-      </c>
-      <c r="T4" s="3">
-        <v>5</v>
-      </c>
-      <c r="U4" s="3">
+      <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -794,41 +797,47 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
       </c>
       <c r="L5">
         <v>10</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
         <v>9</v>
       </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
       <c r="P5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
       <c r="T5">
         <v>5</v>
       </c>
       <c r="U5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -853,8 +862,11 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>27</v>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -874,20 +886,23 @@
       <c r="Q6">
         <v>10</v>
       </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
       <c r="T6">
         <v>5</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -912,38 +927,44 @@
       <c r="I7">
         <v>5</v>
       </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
       <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
         <v>9</v>
       </c>
-      <c r="M7">
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
         <v>6</v>
       </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="O7">
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
         <v>9</v>
       </c>
-      <c r="P7">
-        <v>10</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-      <c r="U7">
-        <v>5</v>
-      </c>
       <c r="V7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -968,26 +989,32 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="K8" t="s">
-        <v>27</v>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -996,13 +1023,10 @@
         <v>5</v>
       </c>
       <c r="V8">
-        <v>5</v>
-      </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1027,89 +1051,92 @@
       <c r="I9">
         <v>3</v>
       </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
       <c r="L9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>7</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>4</v>
+      </c>
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="P9">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="T9">
-        <v>5</v>
-      </c>
-      <c r="U9">
-        <v>5</v>
-      </c>
-      <c r="V9">
-        <v>4</v>
-      </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+    </row>
+    <row r="11" spans="2:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="2:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="2:24" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="S1:W1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{18B659C7-3FB7-4371-950C-A24620780A24}"/>

--- a/rm-data/quizes/Grades24.xlsx
+++ b/rm-data/quizes/Grades24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\GitHub\riosavila\rm-data\quizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E926D0F-0C47-4F01-A094-7B6011F95108}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DBD287-EDDE-4F79-9CD6-E4245F74D2DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="7590" xr2:uid="{D3ED276E-F392-496A-AF90-5D2B9459768C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>Part I: Research Proposal (5%, due Week 2). See here for few examples of research proposals.</t>
+  </si>
+  <si>
+    <t>Final Grade</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -205,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -220,6 +235,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,14 +557,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F5E725-F72A-43FF-B2C4-A946C215241C}">
-  <dimension ref="B1:X25"/>
+  <dimension ref="B1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,35 +573,37 @@
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="2"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+    </row>
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -608,50 +628,53 @@
       <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -676,47 +699,80 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <f>AVERAGE(D3:I3)</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
       <c r="L3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M3">
         <v>8</v>
       </c>
       <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
         <v>9</v>
       </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
       <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
         <v>9</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>8</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <f>AVERAGE(L3:S3)</f>
+        <v>9</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
         <v>15</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3">
+        <f>+SUM(U3:Z3)</f>
+        <v>53</v>
+      </c>
+      <c r="AB3">
+        <f>+AA3+5</f>
+        <v>58</v>
+      </c>
+      <c r="AC3">
+        <f>+T3*3+J3*2</f>
+        <v>35.333333333333336</v>
+      </c>
+      <c r="AD3">
+        <f>+AC3+AB3</f>
+        <v>93.333333333333343</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -741,14 +797,15 @@
       <c r="I4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="0">AVERAGE(D4:I4)</f>
+        <v>3.5</v>
+      </c>
+      <c r="L4">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -757,22 +814,37 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" s="3">
-        <v>5</v>
-      </c>
-      <c r="T4" s="3">
+      <c r="R4" s="3">
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="S4" s="3"/>
+      <c r="T4">
+        <f t="shared" ref="T4:T9" si="1">AVERAGE(L4:R4)</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="U4" s="3">
+        <v>5</v>
+      </c>
+      <c r="V4" s="3">
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <f>+SUM(U4:Z4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -797,47 +869,80 @@
       <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K5" t="s">
         <v>26</v>
       </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
       <c r="L5">
         <v>10</v>
       </c>
       <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
         <v>9</v>
       </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
       <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
         <v>9</v>
-      </c>
-      <c r="P5">
-        <v>7</v>
       </c>
       <c r="Q5">
         <v>7</v>
       </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
       <c r="S5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>5</v>
+        <f>AVERAGE(L5:S5)</f>
+        <v>9</v>
       </c>
       <c r="U5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
         <v>13</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <f>+SUM(U5:Z5)</f>
+        <v>49</v>
+      </c>
+      <c r="AB5">
+        <f>+AA5+5</f>
+        <v>54</v>
+      </c>
+      <c r="AC5">
+        <f>+T5*3+J5*2</f>
+        <v>36.333333333333336</v>
+      </c>
+      <c r="AD5">
+        <f>+AC5+AB5</f>
+        <v>90.333333333333343</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -862,12 +967,13 @@
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
       <c r="L6">
         <v>10</v>
       </c>
@@ -886,23 +992,55 @@
       <c r="Q6">
         <v>10</v>
       </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
       <c r="S6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <f>AVERAGE(L6:S6)</f>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
         <v>15</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <f>+SUM(U6:Z6)</f>
+        <v>53</v>
+      </c>
+      <c r="AB6">
+        <f>+AA6+5</f>
+        <v>58</v>
+      </c>
+      <c r="AC6">
+        <f>+T6*3+J6*2</f>
+        <v>39.666666666666664</v>
+      </c>
+      <c r="AD6">
+        <f>+AC6+AB6</f>
+        <v>97.666666666666657</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -927,44 +1065,77 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6</v>
       </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
       <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
         <v>9</v>
       </c>
-      <c r="O7">
-        <v>10</v>
-      </c>
       <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>8</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <f>AVERAGE(L7:S7)</f>
+        <v>8.5</v>
       </c>
       <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
         <v>9</v>
       </c>
-      <c r="V7">
-        <v>5</v>
-      </c>
-      <c r="W7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <f>+SUM(U7:Z7)</f>
+        <v>42</v>
+      </c>
+      <c r="AB7">
+        <f>+AA7+5</f>
+        <v>47</v>
+      </c>
+      <c r="AC7">
+        <f>+T7*3+J7*2</f>
+        <v>34.5</v>
+      </c>
+      <c r="AD7">
+        <f>+AC7+AB7</f>
+        <v>81.5</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -989,44 +1160,80 @@
       <c r="I8">
         <v>5</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>9</v>
       </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
       <c r="O8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8">
         <v>3</v>
       </c>
       <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
         <v>6</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <f>AVERAGE(L8:S8)</f>
+        <v>7.125</v>
       </c>
       <c r="U8">
         <v>5</v>
       </c>
       <c r="V8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>12</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <f>+SUM(U8:Z8)</f>
+        <v>42</v>
+      </c>
+      <c r="AB8">
+        <f>+AA8+5</f>
+        <v>47</v>
+      </c>
+      <c r="AC8">
+        <f>+T8*3+J8*2</f>
+        <v>30.708333333333336</v>
+      </c>
+      <c r="AD8">
+        <f>+AC8+AB8</f>
+        <v>77.708333333333343</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1051,58 +1258,94 @@
       <c r="I9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="L9">
         <v>8</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
       </c>
       <c r="M9">
         <v>7</v>
       </c>
       <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
         <v>2</v>
       </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
       <c r="P9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>5</v>
+        <f>AVERAGE(L9:S9)</f>
+        <v>4.875</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>11</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <f>+SUM(U9:Z9)</f>
+        <v>32</v>
+      </c>
+      <c r="AB9">
+        <f>+AA9+5</f>
+        <v>37</v>
+      </c>
+      <c r="AC9">
+        <f>+T9*3+J9*2</f>
+        <v>20.958333333333332</v>
+      </c>
+      <c r="AD9">
+        <f>+AC9+AB9</f>
+        <v>57.958333333333329</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="2:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -1135,8 +1378,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{18B659C7-3FB7-4371-950C-A24620780A24}"/>
